--- a/Masks Functionality Spredsheet.xlsx
+++ b/Masks Functionality Spredsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\Godot\Faceless Face Off\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D3592-A162-415D-B2FC-15E333A99DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343E2FDD-E3AA-4D18-899D-1A8F0C9A0AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,14 +638,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
@@ -655,10 +655,10 @@
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
